--- a/biology/Botanique/Liste_des_parcs_et_jardins_publics_urbains_de_Hong_Kong/Liste_des_parcs_et_jardins_publics_urbains_de_Hong_Kong.xlsx
+++ b/biology/Botanique/Liste_des_parcs_et_jardins_publics_urbains_de_Hong_Kong/Liste_des_parcs_et_jardins_publics_urbains_de_Hong_Kong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des parcs et jardins publics urbains de Hong Kong
 La plupart sont gérés par le département des loisirs et des services culturels.
@@ -512,7 +524,9 @@
           <t>Île de Hong Kong</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Promenade Aberdeen (en) (Aberdeen)
 Parc de la baie Aldrich (en) (Baie Aldrich (en), Sai Wan Ho (en))
@@ -563,7 +577,9 @@
           <t>Kowloon et New Kowloon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aire de jeux de Choi Hung Road (en)
 Parc de Fa Hui (en)
@@ -621,7 +637,9 @@
           <t>Nouveaux Territoires (sauf New Kowloon)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Parc de Kwai Chung central
 Parc du Vélodrome de Hong Kong (en) (Tseung Kwan O)
